--- a/teaching/traditional_assets/database/data/united_arab_emirates/united_arab_emirates_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/united_arab_emirates/united_arab_emirates_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -590,12 +590,6 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D2">
-        <v>-0.126</v>
-      </c>
-      <c r="E2">
-        <v>-0.0654</v>
-      </c>
       <c r="G2">
         <v>0</v>
       </c>
@@ -603,34 +597,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.02812698412698413</v>
+        <v>0.6870229007633588</v>
       </c>
       <c r="J2">
-        <v>0.02812698412698413</v>
+        <v>0.6870229007633588</v>
       </c>
       <c r="K2">
-        <v>6.281000000000001</v>
+        <v>2.29</v>
       </c>
       <c r="L2">
-        <v>0.1993968253968254</v>
+        <v>0.5826972010178116</v>
       </c>
       <c r="M2">
-        <v>4.28</v>
+        <v>4.4</v>
       </c>
       <c r="N2">
-        <v>0.02271762208067941</v>
+        <v>0.04916201117318436</v>
       </c>
       <c r="O2">
-        <v>0.6814201560261105</v>
+        <v>1.921397379912664</v>
       </c>
       <c r="P2">
-        <v>4.28</v>
+        <v>4.4</v>
       </c>
       <c r="Q2">
-        <v>0.02271762208067941</v>
+        <v>0.04916201117318436</v>
       </c>
       <c r="R2">
-        <v>0.6814201560261105</v>
+        <v>1.921397379912664</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,67 +633,67 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>54.43</v>
+        <v>0.218</v>
       </c>
       <c r="V2">
-        <v>0.2889065817409766</v>
+        <v>0.002435754189944134</v>
       </c>
       <c r="W2">
-        <v>0.01638161133766482</v>
+        <v>0.01305587229190422</v>
       </c>
       <c r="X2">
-        <v>0.0511398195789819</v>
+        <v>0.03875232327289777</v>
       </c>
       <c r="Y2">
-        <v>-0.03475820824131708</v>
+        <v>-0.02569645098099355</v>
       </c>
       <c r="Z2">
-        <v>0.09384412342140777</v>
+        <v>0.02321185990195499</v>
       </c>
       <c r="AA2">
-        <v>0.002393520744746951</v>
+        <v>0.01594707932195381</v>
       </c>
       <c r="AB2">
-        <v>0.04948247211860739</v>
+        <v>0.03728462541288226</v>
       </c>
       <c r="AC2">
-        <v>-0.04708895137386043</v>
+        <v>-0.02133754609092845</v>
       </c>
       <c r="AD2">
-        <v>10.27</v>
+        <v>6.02</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>10.27</v>
+        <v>6.02</v>
       </c>
       <c r="AG2">
-        <v>-44.16</v>
+        <v>5.802</v>
       </c>
       <c r="AH2">
-        <v>0.05169376352745759</v>
+        <v>0.06302345058626466</v>
       </c>
       <c r="AI2">
-        <v>0.02715709865933311</v>
+        <v>0.03433721195528176</v>
       </c>
       <c r="AJ2">
-        <v>-0.3061564059900166</v>
+        <v>0.06088014941973936</v>
       </c>
       <c r="AK2">
-        <v>-0.1364057577068017</v>
+        <v>0.03313497275873491</v>
       </c>
       <c r="AL2">
-        <v>0.102</v>
+        <v>0.416</v>
       </c>
       <c r="AM2">
-        <v>-7.228</v>
+        <v>0.416</v>
       </c>
       <c r="AO2">
-        <v>8.686274509803923</v>
+        <v>6.490384615384616</v>
       </c>
       <c r="AQ2">
-        <v>-0.1225788599889319</v>
+        <v>6.490384615384616</v>
       </c>
     </row>
     <row r="3">
@@ -718,12 +712,6 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D3">
-        <v>-0.126</v>
-      </c>
-      <c r="E3">
-        <v>-0.0654</v>
-      </c>
       <c r="G3">
         <v>0</v>
       </c>
@@ -731,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4922222222222222</v>
+        <v>0.6870229007633588</v>
       </c>
       <c r="J3">
-        <v>0.4922222222222222</v>
+        <v>0.6870229007633588</v>
       </c>
       <c r="K3">
-        <v>5.99</v>
+        <v>2.29</v>
       </c>
       <c r="L3">
-        <v>3.327777777777778</v>
+        <v>0.5826972010178116</v>
       </c>
       <c r="M3">
-        <v>4.28</v>
+        <v>4.4</v>
       </c>
       <c r="N3">
-        <v>0.05356695869837297</v>
+        <v>0.04916201117318436</v>
       </c>
       <c r="O3">
-        <v>0.7145242070116862</v>
+        <v>1.921397379912664</v>
       </c>
       <c r="P3">
-        <v>4.28</v>
+        <v>4.4</v>
       </c>
       <c r="Q3">
-        <v>0.05356695869837297</v>
+        <v>0.04916201117318436</v>
       </c>
       <c r="R3">
-        <v>0.7145242070116862</v>
+        <v>1.921397379912664</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,180 +755,67 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>7.13</v>
+        <v>0.218</v>
       </c>
       <c r="V3">
-        <v>0.08923654568210262</v>
+        <v>0.002435754189944134</v>
       </c>
       <c r="W3">
-        <v>0.03114924596983879</v>
+        <v>0.01305587229190422</v>
       </c>
       <c r="X3">
-        <v>0.05063319546397972</v>
+        <v>0.03875232327289777</v>
       </c>
       <c r="Y3">
-        <v>-0.01948394949414093</v>
+        <v>-0.02569645098099355</v>
       </c>
       <c r="Z3">
-        <v>0.009725366457211088</v>
+        <v>0.02321185990195499</v>
       </c>
       <c r="AA3">
-        <v>0.004787041489493902</v>
+        <v>0.01594707932195381</v>
       </c>
       <c r="AB3">
-        <v>0.05022631394131651</v>
+        <v>0.03728462541288226</v>
       </c>
       <c r="AC3">
-        <v>-0.0454392724518226</v>
+        <v>-0.02133754609092845</v>
       </c>
       <c r="AD3">
-        <v>1.04</v>
+        <v>6.02</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.04</v>
+        <v>6.02</v>
       </c>
       <c r="AG3">
-        <v>-6.09</v>
+        <v>5.802</v>
       </c>
       <c r="AH3">
-        <v>0.01284902396837163</v>
+        <v>0.06302345058626466</v>
       </c>
       <c r="AI3">
-        <v>0.005894355021537067</v>
+        <v>0.03433721195528176</v>
       </c>
       <c r="AJ3">
-        <v>-0.08250914510228965</v>
+        <v>0.06088014941973936</v>
       </c>
       <c r="AK3">
-        <v>-0.03596952335951804</v>
+        <v>0.03313497275873491</v>
       </c>
       <c r="AL3">
-        <v>0.102</v>
+        <v>0.416</v>
       </c>
       <c r="AM3">
-        <v>-7.228</v>
+        <v>0.416</v>
       </c>
       <c r="AO3">
-        <v>8.686274509803923</v>
+        <v>6.490384615384616</v>
       </c>
       <c r="AQ3">
-        <v>-0.1225788599889319</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>The National Investor Pr. J.S.C. (ADX:TNI)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0.291</v>
-      </c>
-      <c r="L4">
-        <v>0.009797979797979797</v>
-      </c>
-      <c r="M4">
-        <v>-0</v>
-      </c>
-      <c r="N4">
-        <v>-0</v>
-      </c>
-      <c r="O4">
-        <v>-0</v>
-      </c>
-      <c r="P4">
-        <v>-0</v>
-      </c>
-      <c r="Q4">
-        <v>-0</v>
-      </c>
-      <c r="R4">
-        <v>-0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>47.3</v>
-      </c>
-      <c r="V4">
-        <v>0.4359447004608294</v>
-      </c>
-      <c r="W4">
-        <v>0.001613976705490848</v>
-      </c>
-      <c r="X4">
-        <v>0.05164644369398408</v>
-      </c>
-      <c r="Y4">
-        <v>-0.05003246698849323</v>
-      </c>
-      <c r="Z4">
-        <v>0.1972373489175189</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0.04873863029589826</v>
-      </c>
-      <c r="AC4">
-        <v>-0.04873863029589826</v>
-      </c>
-      <c r="AD4">
-        <v>9.23</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>9.23</v>
-      </c>
-      <c r="AG4">
-        <v>-38.06999999999999</v>
-      </c>
-      <c r="AH4">
-        <v>0.07839972819162491</v>
-      </c>
-      <c r="AI4">
-        <v>0.04575422594557082</v>
-      </c>
-      <c r="AJ4">
-        <v>-0.5405367031094702</v>
-      </c>
-      <c r="AK4">
-        <v>-0.2465194586544065</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
+        <v>6.490384615384616</v>
       </c>
     </row>
   </sheetData>
